--- a/rawdata/excel/100 200x200_dik^dikpq^dikbq^aspq^asbq_sd0.xlsx
+++ b/rawdata/excel/100 200x200_dik^dikpq^dikbq^aspq^asbq_sd0.xlsx
@@ -1,29 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\RASPBERRYPI\altairBackup\rawdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/altair823/Desktop/SPA_compare/rawdata/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57FBED9-C267-4D59-8582-979552A35E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CC39BA-E2DD-CB40-AEAF-B16D86F3D335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>DIK</t>
   </si>
@@ -39,12 +47,16 @@
   <si>
     <t>ASBQ</t>
   </si>
+  <si>
+    <t>is SPD same?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,8 +92,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -5275,1737 +5290,6 @@
 </c:userShapes>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="F1" t="str">
-            <v>DIK</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>DIKPQ</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>DIKBQ</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>ASPQ</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>ASBQ</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="F2">
-            <v>0.239956</v>
-          </cell>
-          <cell r="G2">
-            <v>5.4710000000000002E-3</v>
-          </cell>
-          <cell r="H2">
-            <v>2.2209999999999999E-3</v>
-          </cell>
-          <cell r="I2">
-            <v>4.3990000000000001E-3</v>
-          </cell>
-          <cell r="J2">
-            <v>1.16E-3</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>0.24366199999999999</v>
-          </cell>
-          <cell r="G3">
-            <v>5.476E-3</v>
-          </cell>
-          <cell r="H3">
-            <v>2.2100000000000002E-3</v>
-          </cell>
-          <cell r="I3">
-            <v>4.9849999999999998E-3</v>
-          </cell>
-          <cell r="J3">
-            <v>1.232E-3</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>0.243811</v>
-          </cell>
-          <cell r="G4">
-            <v>5.5139999999999998E-3</v>
-          </cell>
-          <cell r="H4">
-            <v>2.2390000000000001E-3</v>
-          </cell>
-          <cell r="I4">
-            <v>5.0159999999999996E-3</v>
-          </cell>
-          <cell r="J4">
-            <v>1.1999999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>0.24329700000000001</v>
-          </cell>
-          <cell r="G5">
-            <v>5.4790000000000004E-3</v>
-          </cell>
-          <cell r="H5">
-            <v>2.1949999999999999E-3</v>
-          </cell>
-          <cell r="I5">
-            <v>2.7550000000000001E-3</v>
-          </cell>
-          <cell r="J5">
-            <v>5.6300000000000002E-4</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>0.24446599999999999</v>
-          </cell>
-          <cell r="G6">
-            <v>5.4489999999999999E-3</v>
-          </cell>
-          <cell r="H6">
-            <v>2.2569999999999999E-3</v>
-          </cell>
-          <cell r="I6">
-            <v>6.0010000000000003E-3</v>
-          </cell>
-          <cell r="J6">
-            <v>1.418E-3</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>0.21423300000000001</v>
-          </cell>
-          <cell r="G7">
-            <v>5.0959999999999998E-3</v>
-          </cell>
-          <cell r="H7">
-            <v>2.1259999999999999E-3</v>
-          </cell>
-          <cell r="I7">
-            <v>3.4770000000000001E-3</v>
-          </cell>
-          <cell r="J7">
-            <v>9.8700000000000003E-4</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>0.244003</v>
-          </cell>
-          <cell r="G8">
-            <v>5.4850000000000003E-3</v>
-          </cell>
-          <cell r="H8">
-            <v>2.215E-3</v>
-          </cell>
-          <cell r="I8">
-            <v>3.8409999999999998E-3</v>
-          </cell>
-          <cell r="J8">
-            <v>7.7800000000000005E-4</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>0.24198500000000001</v>
-          </cell>
-          <cell r="G9">
-            <v>5.4359999999999999E-3</v>
-          </cell>
-          <cell r="H9">
-            <v>2.2279999999999999E-3</v>
-          </cell>
-          <cell r="I9">
-            <v>2.5509999999999999E-3</v>
-          </cell>
-          <cell r="J9">
-            <v>5.5000000000000003E-4</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>0.24340000000000001</v>
-          </cell>
-          <cell r="G10">
-            <v>5.4980000000000003E-3</v>
-          </cell>
-          <cell r="H10">
-            <v>2.2460000000000002E-3</v>
-          </cell>
-          <cell r="I10">
-            <v>3.3119999999999998E-3</v>
-          </cell>
-          <cell r="J10">
-            <v>8.4999999999999995E-4</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>0.243897</v>
-          </cell>
-          <cell r="G11">
-            <v>5.4910000000000002E-3</v>
-          </cell>
-          <cell r="H11">
-            <v>2.2030000000000001E-3</v>
-          </cell>
-          <cell r="I11">
-            <v>6.0470000000000003E-3</v>
-          </cell>
-          <cell r="J11">
-            <v>1.4530000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>0.24393400000000001</v>
-          </cell>
-          <cell r="G12">
-            <v>5.4400000000000004E-3</v>
-          </cell>
-          <cell r="H12">
-            <v>2.2439999999999999E-3</v>
-          </cell>
-          <cell r="I12">
-            <v>3.6189999999999998E-3</v>
-          </cell>
-          <cell r="J12">
-            <v>9.7499999999999996E-4</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>0.238148</v>
-          </cell>
-          <cell r="G13">
-            <v>5.3239999999999997E-3</v>
-          </cell>
-          <cell r="H13">
-            <v>2.2629999999999998E-3</v>
-          </cell>
-          <cell r="I13">
-            <v>4.9389999999999998E-3</v>
-          </cell>
-          <cell r="J13">
-            <v>1.3389999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>0.24360100000000001</v>
-          </cell>
-          <cell r="G14">
-            <v>5.4349999999999997E-3</v>
-          </cell>
-          <cell r="H14">
-            <v>2.1970000000000002E-3</v>
-          </cell>
-          <cell r="I14">
-            <v>2.9750000000000002E-3</v>
-          </cell>
-          <cell r="J14">
-            <v>7.7300000000000003E-4</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>0.24445700000000001</v>
-          </cell>
-          <cell r="G15">
-            <v>5.5389999999999997E-3</v>
-          </cell>
-          <cell r="H15">
-            <v>2.1930000000000001E-3</v>
-          </cell>
-          <cell r="I15">
-            <v>4.3239999999999997E-3</v>
-          </cell>
-          <cell r="J15">
-            <v>9.2400000000000002E-4</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>0.24524299999999999</v>
-          </cell>
-          <cell r="G16">
-            <v>5.4169999999999999E-3</v>
-          </cell>
-          <cell r="H16">
-            <v>2.3110000000000001E-3</v>
-          </cell>
-          <cell r="I16">
-            <v>4.365E-3</v>
-          </cell>
-          <cell r="J16">
-            <v>1.132E-3</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>0.243871</v>
-          </cell>
-          <cell r="G17">
-            <v>5.5030000000000001E-3</v>
-          </cell>
-          <cell r="H17">
-            <v>2.176E-3</v>
-          </cell>
-          <cell r="I17">
-            <v>3.2320000000000001E-3</v>
-          </cell>
-          <cell r="J17">
-            <v>7.7700000000000002E-4</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>0.24474699999999999</v>
-          </cell>
-          <cell r="G18">
-            <v>5.4710000000000002E-3</v>
-          </cell>
-          <cell r="H18">
-            <v>2.222E-3</v>
-          </cell>
-          <cell r="I18">
-            <v>4.7019999999999996E-3</v>
-          </cell>
-          <cell r="J18">
-            <v>1.0280000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>0.243205</v>
-          </cell>
-          <cell r="G19">
-            <v>5.4869999999999997E-3</v>
-          </cell>
-          <cell r="H19">
-            <v>2.2160000000000001E-3</v>
-          </cell>
-          <cell r="I19">
-            <v>4.267E-3</v>
-          </cell>
-          <cell r="J19">
-            <v>9.3800000000000003E-4</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>0.244861</v>
-          </cell>
-          <cell r="G20">
-            <v>5.509E-3</v>
-          </cell>
-          <cell r="H20">
-            <v>2.189E-3</v>
-          </cell>
-          <cell r="I20">
-            <v>4.5859999999999998E-3</v>
-          </cell>
-          <cell r="J20">
-            <v>9.9500000000000001E-4</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>0.24363899999999999</v>
-          </cell>
-          <cell r="G21">
-            <v>5.4219999999999997E-3</v>
-          </cell>
-          <cell r="H21">
-            <v>2.3029999999999999E-3</v>
-          </cell>
-          <cell r="I21">
-            <v>5.9439999999999996E-3</v>
-          </cell>
-          <cell r="J21">
-            <v>1.604E-3</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>0.22676199999999999</v>
-          </cell>
-          <cell r="G22">
-            <v>5.2170000000000003E-3</v>
-          </cell>
-          <cell r="H22">
-            <v>2.1459999999999999E-3</v>
-          </cell>
-          <cell r="I22">
-            <v>2.052E-3</v>
-          </cell>
-          <cell r="J22">
-            <v>5.0600000000000005E-4</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>0.244004</v>
-          </cell>
-          <cell r="G23">
-            <v>5.4260000000000003E-3</v>
-          </cell>
-          <cell r="H23">
-            <v>2.245E-3</v>
-          </cell>
-          <cell r="I23">
-            <v>6.0790000000000002E-3</v>
-          </cell>
-          <cell r="J23">
-            <v>1.526E-3</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>0.244171</v>
-          </cell>
-          <cell r="G24">
-            <v>5.398E-3</v>
-          </cell>
-          <cell r="H24">
-            <v>2.3019999999999998E-3</v>
-          </cell>
-          <cell r="I24">
-            <v>6.2719999999999998E-3</v>
-          </cell>
-          <cell r="J24">
-            <v>1.7340000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>0.241283</v>
-          </cell>
-          <cell r="G25">
-            <v>5.4429999999999999E-3</v>
-          </cell>
-          <cell r="H25">
-            <v>2.2030000000000001E-3</v>
-          </cell>
-          <cell r="I25">
-            <v>4.0959999999999998E-3</v>
-          </cell>
-          <cell r="J25">
-            <v>9.8900000000000008E-4</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>0.243618</v>
-          </cell>
-          <cell r="G26">
-            <v>5.4419999999999998E-3</v>
-          </cell>
-          <cell r="H26">
-            <v>2.2239999999999998E-3</v>
-          </cell>
-          <cell r="I26">
-            <v>6.5900000000000004E-3</v>
-          </cell>
-          <cell r="J26">
-            <v>1.634E-3</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="F27">
-            <v>0.24334800000000001</v>
-          </cell>
-          <cell r="G27">
-            <v>5.5100000000000001E-3</v>
-          </cell>
-          <cell r="H27">
-            <v>2.2100000000000002E-3</v>
-          </cell>
-          <cell r="I27">
-            <v>4.333E-3</v>
-          </cell>
-          <cell r="J27">
-            <v>8.5099999999999998E-4</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="F28">
-            <v>0.24434500000000001</v>
-          </cell>
-          <cell r="G28">
-            <v>5.522E-3</v>
-          </cell>
-          <cell r="H28">
-            <v>2.1610000000000002E-3</v>
-          </cell>
-          <cell r="I28">
-            <v>1.5280000000000001E-3</v>
-          </cell>
-          <cell r="J28">
-            <v>3.79E-4</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="F29">
-            <v>0.243697</v>
-          </cell>
-          <cell r="G29">
-            <v>5.4689999999999999E-3</v>
-          </cell>
-          <cell r="H29">
-            <v>2.2569999999999999E-3</v>
-          </cell>
-          <cell r="I29">
-            <v>5.372E-3</v>
-          </cell>
-          <cell r="J29">
-            <v>1.3290000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="F30">
-            <v>0.243594</v>
-          </cell>
-          <cell r="G30">
-            <v>5.4599999999999996E-3</v>
-          </cell>
-          <cell r="H30">
-            <v>2.2160000000000001E-3</v>
-          </cell>
-          <cell r="I30">
-            <v>2.647E-3</v>
-          </cell>
-          <cell r="J30">
-            <v>6.4599999999999998E-4</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="F31">
-            <v>0.24193700000000001</v>
-          </cell>
-          <cell r="G31">
-            <v>5.4440000000000001E-3</v>
-          </cell>
-          <cell r="H31">
-            <v>2.2390000000000001E-3</v>
-          </cell>
-          <cell r="I31">
-            <v>6.1630000000000001E-3</v>
-          </cell>
-          <cell r="J31">
-            <v>1.5410000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="F32">
-            <v>0.24238100000000001</v>
-          </cell>
-          <cell r="G32">
-            <v>5.4689999999999999E-3</v>
-          </cell>
-          <cell r="H32">
-            <v>2.199E-3</v>
-          </cell>
-          <cell r="I32">
-            <v>3.6579999999999998E-3</v>
-          </cell>
-          <cell r="J32">
-            <v>9.3300000000000002E-4</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="F33">
-            <v>0.244342</v>
-          </cell>
-          <cell r="G33">
-            <v>5.4359999999999999E-3</v>
-          </cell>
-          <cell r="H33">
-            <v>2.2599999999999999E-3</v>
-          </cell>
-          <cell r="I33">
-            <v>4.9639999999999997E-3</v>
-          </cell>
-          <cell r="J33">
-            <v>1.292E-3</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="F34">
-            <v>0.24413099999999999</v>
-          </cell>
-          <cell r="G34">
-            <v>5.4790000000000004E-3</v>
-          </cell>
-          <cell r="H34">
-            <v>2.264E-3</v>
-          </cell>
-          <cell r="I34">
-            <v>4.7710000000000001E-3</v>
-          </cell>
-          <cell r="J34">
-            <v>1.266E-3</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="F35">
-            <v>0.24202699999999999</v>
-          </cell>
-          <cell r="G35">
-            <v>5.4419999999999998E-3</v>
-          </cell>
-          <cell r="H35">
-            <v>2.2989999999999998E-3</v>
-          </cell>
-          <cell r="I35">
-            <v>6.6499999999999997E-3</v>
-          </cell>
-          <cell r="J35">
-            <v>1.7279999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="F36">
-            <v>0.243064</v>
-          </cell>
-          <cell r="G36">
-            <v>5.45E-3</v>
-          </cell>
-          <cell r="H36">
-            <v>2.2339999999999999E-3</v>
-          </cell>
-          <cell r="I36">
-            <v>6.7010000000000004E-3</v>
-          </cell>
-          <cell r="J36">
-            <v>1.6850000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="F37">
-            <v>0.2414</v>
-          </cell>
-          <cell r="G37">
-            <v>5.457E-3</v>
-          </cell>
-          <cell r="H37">
-            <v>2.2330000000000002E-3</v>
-          </cell>
-          <cell r="I37">
-            <v>4.1070000000000004E-3</v>
-          </cell>
-          <cell r="J37">
-            <v>1.0809999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="F38">
-            <v>0.24399999999999999</v>
-          </cell>
-          <cell r="G38">
-            <v>5.5129999999999997E-3</v>
-          </cell>
-          <cell r="H38">
-            <v>2.1840000000000002E-3</v>
-          </cell>
-          <cell r="I38">
-            <v>3.784E-3</v>
-          </cell>
-          <cell r="J38">
-            <v>8.8999999999999995E-4</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="F39">
-            <v>0.24037900000000001</v>
-          </cell>
-          <cell r="G39">
-            <v>5.457E-3</v>
-          </cell>
-          <cell r="H39">
-            <v>2.2130000000000001E-3</v>
-          </cell>
-          <cell r="I39">
-            <v>3.6389999999999999E-3</v>
-          </cell>
-          <cell r="J39">
-            <v>8.3600000000000005E-4</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="F40">
-            <v>0.243312</v>
-          </cell>
-          <cell r="G40">
-            <v>5.4209999999999996E-3</v>
-          </cell>
-          <cell r="H40">
-            <v>2.2929999999999999E-3</v>
-          </cell>
-          <cell r="I40">
-            <v>5.1739999999999998E-3</v>
-          </cell>
-          <cell r="J40">
-            <v>1.3600000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="F41">
-            <v>0.238234</v>
-          </cell>
-          <cell r="G41">
-            <v>5.3889999999999997E-3</v>
-          </cell>
-          <cell r="H41">
-            <v>2.2420000000000001E-3</v>
-          </cell>
-          <cell r="I41">
-            <v>5.2440000000000004E-3</v>
-          </cell>
-          <cell r="J41">
-            <v>1.2210000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="F42">
-            <v>0.24379700000000001</v>
-          </cell>
-          <cell r="G42">
-            <v>5.4720000000000003E-3</v>
-          </cell>
-          <cell r="H42">
-            <v>2.2550000000000001E-3</v>
-          </cell>
-          <cell r="I42">
-            <v>5.659E-3</v>
-          </cell>
-          <cell r="J42">
-            <v>1.4430000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="F43">
-            <v>0.243809</v>
-          </cell>
-          <cell r="G43">
-            <v>5.4580000000000002E-3</v>
-          </cell>
-          <cell r="H43">
-            <v>2.2409999999999999E-3</v>
-          </cell>
-          <cell r="I43">
-            <v>4.9959999999999996E-3</v>
-          </cell>
-          <cell r="J43">
-            <v>1.2999999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="F44">
-            <v>0.24360000000000001</v>
-          </cell>
-          <cell r="G44">
-            <v>5.4990000000000004E-3</v>
-          </cell>
-          <cell r="H44">
-            <v>2.176E-3</v>
-          </cell>
-          <cell r="I44">
-            <v>3.261E-3</v>
-          </cell>
-          <cell r="J44">
-            <v>7.9000000000000001E-4</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="F45">
-            <v>0.24402499999999999</v>
-          </cell>
-          <cell r="G45">
-            <v>5.4419999999999998E-3</v>
-          </cell>
-          <cell r="H45">
-            <v>2.2629999999999998E-3</v>
-          </cell>
-          <cell r="I45">
-            <v>5.6600000000000001E-3</v>
-          </cell>
-          <cell r="J45">
-            <v>1.467E-3</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="F46">
-            <v>0.24297199999999999</v>
-          </cell>
-          <cell r="G46">
-            <v>5.4390000000000003E-3</v>
-          </cell>
-          <cell r="H46">
-            <v>2.2650000000000001E-3</v>
-          </cell>
-          <cell r="I46">
-            <v>6.77E-3</v>
-          </cell>
-          <cell r="J46">
-            <v>1.774E-3</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="F47">
-            <v>0.24189099999999999</v>
-          </cell>
-          <cell r="G47">
-            <v>5.476E-3</v>
-          </cell>
-          <cell r="H47">
-            <v>2.1940000000000002E-3</v>
-          </cell>
-          <cell r="I47">
-            <v>2.415E-3</v>
-          </cell>
-          <cell r="J47">
-            <v>6.1399999999999996E-4</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="F48">
-            <v>0.243066</v>
-          </cell>
-          <cell r="G48">
-            <v>5.4799999999999996E-3</v>
-          </cell>
-          <cell r="H48">
-            <v>2.2179999999999999E-3</v>
-          </cell>
-          <cell r="I48">
-            <v>3.3310000000000002E-3</v>
-          </cell>
-          <cell r="J48">
-            <v>8.0900000000000004E-4</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="F49">
-            <v>0.244815</v>
-          </cell>
-          <cell r="G49">
-            <v>5.4640000000000001E-3</v>
-          </cell>
-          <cell r="H49">
-            <v>2.2269999999999998E-3</v>
-          </cell>
-          <cell r="I49">
-            <v>2.784E-3</v>
-          </cell>
-          <cell r="J49">
-            <v>7.0200000000000004E-4</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="F50">
-            <v>0.24304000000000001</v>
-          </cell>
-          <cell r="G50">
-            <v>5.4549999999999998E-3</v>
-          </cell>
-          <cell r="H50">
-            <v>2.222E-3</v>
-          </cell>
-          <cell r="I50">
-            <v>4.6210000000000001E-3</v>
-          </cell>
-          <cell r="J50">
-            <v>1.059E-3</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="F51">
-            <v>0.23519999999999999</v>
-          </cell>
-          <cell r="G51">
-            <v>5.3559999999999997E-3</v>
-          </cell>
-          <cell r="H51">
-            <v>2.215E-3</v>
-          </cell>
-          <cell r="I51">
-            <v>3.9789999999999999E-3</v>
-          </cell>
-          <cell r="J51">
-            <v>1.0610000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="F52">
-            <v>0.24543200000000001</v>
-          </cell>
-          <cell r="G52">
-            <v>5.5040000000000002E-3</v>
-          </cell>
-          <cell r="H52">
-            <v>2.209E-3</v>
-          </cell>
-          <cell r="I52">
-            <v>4.2199999999999998E-3</v>
-          </cell>
-          <cell r="J52">
-            <v>1.0859999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="F53">
-            <v>0.242724</v>
-          </cell>
-          <cell r="G53">
-            <v>5.476E-3</v>
-          </cell>
-          <cell r="H53">
-            <v>2.2160000000000001E-3</v>
-          </cell>
-          <cell r="I53">
-            <v>4.2979999999999997E-3</v>
-          </cell>
-          <cell r="J53">
-            <v>1.0510000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="F54">
-            <v>0.24454899999999999</v>
-          </cell>
-          <cell r="G54">
-            <v>5.4990000000000004E-3</v>
-          </cell>
-          <cell r="H54">
-            <v>2.1900000000000001E-3</v>
-          </cell>
-          <cell r="I54">
-            <v>2.8939999999999999E-3</v>
-          </cell>
-          <cell r="J54">
-            <v>7.5900000000000002E-4</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="F55">
-            <v>0.240758</v>
-          </cell>
-          <cell r="G55">
-            <v>5.4180000000000001E-3</v>
-          </cell>
-          <cell r="H55">
-            <v>2.264E-3</v>
-          </cell>
-          <cell r="I55">
-            <v>6.6189999999999999E-3</v>
-          </cell>
-          <cell r="J55">
-            <v>1.725E-3</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="F56">
-            <v>0.242229</v>
-          </cell>
-          <cell r="G56">
-            <v>5.4070000000000003E-3</v>
-          </cell>
-          <cell r="H56">
-            <v>2.2699999999999999E-3</v>
-          </cell>
-          <cell r="I56">
-            <v>6.1000000000000004E-3</v>
-          </cell>
-          <cell r="J56">
-            <v>1.6119999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="F57">
-            <v>0.243113</v>
-          </cell>
-          <cell r="G57">
-            <v>5.4469999999999996E-3</v>
-          </cell>
-          <cell r="H57">
-            <v>2.2729999999999998E-3</v>
-          </cell>
-          <cell r="I57">
-            <v>6.8199999999999997E-3</v>
-          </cell>
-          <cell r="J57">
-            <v>1.7409999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="F58">
-            <v>0.24409600000000001</v>
-          </cell>
-          <cell r="G58">
-            <v>5.5079999999999999E-3</v>
-          </cell>
-          <cell r="H58">
-            <v>2.1979999999999999E-3</v>
-          </cell>
-          <cell r="I58">
-            <v>3.0990000000000002E-3</v>
-          </cell>
-          <cell r="J58">
-            <v>8.3199999999999995E-4</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="F59">
-            <v>0.24380599999999999</v>
-          </cell>
-          <cell r="G59">
-            <v>5.5019999999999999E-3</v>
-          </cell>
-          <cell r="H59">
-            <v>2.1979999999999999E-3</v>
-          </cell>
-          <cell r="I59">
-            <v>2.0939999999999999E-3</v>
-          </cell>
-          <cell r="J59">
-            <v>5.3600000000000002E-4</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="F60">
-            <v>0.24186299999999999</v>
-          </cell>
-          <cell r="G60">
-            <v>5.4869999999999997E-3</v>
-          </cell>
-          <cell r="H60">
-            <v>2.173E-3</v>
-          </cell>
-          <cell r="I60">
-            <v>2.7959999999999999E-3</v>
-          </cell>
-          <cell r="J60">
-            <v>6.1700000000000004E-4</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="F61">
-            <v>0.24416199999999999</v>
-          </cell>
-          <cell r="G61">
-            <v>5.4429999999999999E-3</v>
-          </cell>
-          <cell r="H61">
-            <v>2.2520000000000001E-3</v>
-          </cell>
-          <cell r="I61">
-            <v>5.4949999999999999E-3</v>
-          </cell>
-          <cell r="J61">
-            <v>1.4450000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="F62">
-            <v>0.23462</v>
-          </cell>
-          <cell r="G62">
-            <v>5.3359999999999996E-3</v>
-          </cell>
-          <cell r="H62">
-            <v>2.222E-3</v>
-          </cell>
-          <cell r="I62">
-            <v>4.4710000000000001E-3</v>
-          </cell>
-          <cell r="J62">
-            <v>1.1310000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="F63">
-            <v>0.243063</v>
-          </cell>
-          <cell r="G63">
-            <v>5.4489999999999999E-3</v>
-          </cell>
-          <cell r="H63">
-            <v>2.222E-3</v>
-          </cell>
-          <cell r="I63">
-            <v>5.986E-3</v>
-          </cell>
-          <cell r="J63">
-            <v>1.5269999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="F64">
-            <v>0.24328900000000001</v>
-          </cell>
-          <cell r="G64">
-            <v>5.47E-3</v>
-          </cell>
-          <cell r="H64">
-            <v>2.1970000000000002E-3</v>
-          </cell>
-          <cell r="I64">
-            <v>3.2650000000000001E-3</v>
-          </cell>
-          <cell r="J64">
-            <v>7.7700000000000002E-4</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="F65">
-            <v>0.24272299999999999</v>
-          </cell>
-          <cell r="G65">
-            <v>5.47E-3</v>
-          </cell>
-          <cell r="H65">
-            <v>2.2000000000000001E-3</v>
-          </cell>
-          <cell r="I65">
-            <v>1.5579999999999999E-3</v>
-          </cell>
-          <cell r="J65">
-            <v>3.2600000000000001E-4</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="F66">
-            <v>0.24377199999999999</v>
-          </cell>
-          <cell r="G66">
-            <v>5.4489999999999999E-3</v>
-          </cell>
-          <cell r="H66">
-            <v>2.2399999999999998E-3</v>
-          </cell>
-          <cell r="I66">
-            <v>6.1650000000000003E-3</v>
-          </cell>
-          <cell r="J66">
-            <v>1.632E-3</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="F67">
-            <v>0.24260100000000001</v>
-          </cell>
-          <cell r="G67">
-            <v>5.4819999999999999E-3</v>
-          </cell>
-          <cell r="H67">
-            <v>2.1930000000000001E-3</v>
-          </cell>
-          <cell r="I67">
-            <v>4.3379999999999998E-3</v>
-          </cell>
-          <cell r="J67">
-            <v>1.065E-3</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="F68">
-            <v>0.24360299999999999</v>
-          </cell>
-          <cell r="G68">
-            <v>5.4819999999999999E-3</v>
-          </cell>
-          <cell r="H68">
-            <v>2.2139999999999998E-3</v>
-          </cell>
-          <cell r="I68">
-            <v>3.1949999999999999E-3</v>
-          </cell>
-          <cell r="J68">
-            <v>7.3800000000000005E-4</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="F69">
-            <v>0.24409600000000001</v>
-          </cell>
-          <cell r="G69">
-            <v>5.4710000000000002E-3</v>
-          </cell>
-          <cell r="H69">
-            <v>2.2439999999999999E-3</v>
-          </cell>
-          <cell r="I69">
-            <v>4.346E-3</v>
-          </cell>
-          <cell r="J69">
-            <v>1.1789999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="F70">
-            <v>0.24188000000000001</v>
-          </cell>
-          <cell r="G70">
-            <v>5.4790000000000004E-3</v>
-          </cell>
-          <cell r="H70">
-            <v>2.2409999999999999E-3</v>
-          </cell>
-          <cell r="I70">
-            <v>5.6020000000000002E-3</v>
-          </cell>
-          <cell r="J70">
-            <v>1.395E-3</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="F71">
-            <v>0.24512300000000001</v>
-          </cell>
-          <cell r="G71">
-            <v>5.4330000000000003E-3</v>
-          </cell>
-          <cell r="H71">
-            <v>2.3040000000000001E-3</v>
-          </cell>
-          <cell r="I71">
-            <v>5.9630000000000004E-3</v>
-          </cell>
-          <cell r="J71">
-            <v>1.562E-3</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="F72">
-            <v>0.24126300000000001</v>
-          </cell>
-          <cell r="G72">
-            <v>5.4780000000000002E-3</v>
-          </cell>
-          <cell r="H72">
-            <v>2.245E-3</v>
-          </cell>
-          <cell r="I72">
-            <v>3.48E-3</v>
-          </cell>
-          <cell r="J72">
-            <v>9.1799999999999998E-4</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="F73">
-            <v>0.24402499999999999</v>
-          </cell>
-          <cell r="G73">
-            <v>5.6119999999999998E-3</v>
-          </cell>
-          <cell r="H73">
-            <v>2.2039999999999998E-3</v>
-          </cell>
-          <cell r="I73">
-            <v>1.9910000000000001E-3</v>
-          </cell>
-          <cell r="J73">
-            <v>5.1400000000000003E-4</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="F74">
-            <v>0.24163399999999999</v>
-          </cell>
-          <cell r="G74">
-            <v>5.4770000000000001E-3</v>
-          </cell>
-          <cell r="H74">
-            <v>2.209E-3</v>
-          </cell>
-          <cell r="I74">
-            <v>5.3829999999999998E-3</v>
-          </cell>
-          <cell r="J74">
-            <v>1.369E-3</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="F75">
-            <v>0.244141</v>
-          </cell>
-          <cell r="G75">
-            <v>5.4559999999999999E-3</v>
-          </cell>
-          <cell r="H75">
-            <v>2.2179999999999999E-3</v>
-          </cell>
-          <cell r="I75">
-            <v>2.4160000000000002E-3</v>
-          </cell>
-          <cell r="J75">
-            <v>6.2399999999999999E-4</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="F76">
-            <v>0.24048</v>
-          </cell>
-          <cell r="G76">
-            <v>5.3889999999999997E-3</v>
-          </cell>
-          <cell r="H76">
-            <v>2.2520000000000001E-3</v>
-          </cell>
-          <cell r="I76">
-            <v>5.7229999999999998E-3</v>
-          </cell>
-          <cell r="J76">
-            <v>1.5430000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="F77">
-            <v>0.243842</v>
-          </cell>
-          <cell r="G77">
-            <v>5.4869999999999997E-3</v>
-          </cell>
-          <cell r="H77">
-            <v>2.2309999999999999E-3</v>
-          </cell>
-          <cell r="I77">
-            <v>6.8089999999999999E-3</v>
-          </cell>
-          <cell r="J77">
-            <v>1.753E-3</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="F78">
-            <v>0.242095</v>
-          </cell>
-          <cell r="G78">
-            <v>5.4140000000000004E-3</v>
-          </cell>
-          <cell r="H78">
-            <v>2.2539999999999999E-3</v>
-          </cell>
-          <cell r="I78">
-            <v>5.7289999999999997E-3</v>
-          </cell>
-          <cell r="J78">
-            <v>1.48E-3</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="F79">
-            <v>0.240508</v>
-          </cell>
-          <cell r="G79">
-            <v>5.457E-3</v>
-          </cell>
-          <cell r="H79">
-            <v>2.163E-3</v>
-          </cell>
-          <cell r="I79">
-            <v>4.4710000000000001E-3</v>
-          </cell>
-          <cell r="J79">
-            <v>9.990000000000001E-4</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="F80">
-            <v>0.24213499999999999</v>
-          </cell>
-          <cell r="G80">
-            <v>5.4330000000000003E-3</v>
-          </cell>
-          <cell r="H80">
-            <v>2.2360000000000001E-3</v>
-          </cell>
-          <cell r="I80">
-            <v>4.9109999999999996E-3</v>
-          </cell>
-          <cell r="J80">
-            <v>1.1280000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="F81">
-            <v>0.243002</v>
-          </cell>
-          <cell r="G81">
-            <v>5.437E-3</v>
-          </cell>
-          <cell r="H81">
-            <v>2.2520000000000001E-3</v>
-          </cell>
-          <cell r="I81">
-            <v>4.8459999999999996E-3</v>
-          </cell>
-          <cell r="J81">
-            <v>1.0820000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="F82">
-            <v>0.24376400000000001</v>
-          </cell>
-          <cell r="G82">
-            <v>5.4580000000000002E-3</v>
-          </cell>
-          <cell r="H82">
-            <v>2.2160000000000001E-3</v>
-          </cell>
-          <cell r="I82">
-            <v>4.9379999999999997E-3</v>
-          </cell>
-          <cell r="J82">
-            <v>1.072E-3</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="F83">
-            <v>0.23719399999999999</v>
-          </cell>
-          <cell r="G83">
-            <v>5.372E-3</v>
-          </cell>
-          <cell r="H83">
-            <v>2.212E-3</v>
-          </cell>
-          <cell r="I83">
-            <v>3.4090000000000001E-3</v>
-          </cell>
-          <cell r="J83">
-            <v>8.4500000000000005E-4</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="F84">
-            <v>0.24449499999999999</v>
-          </cell>
-          <cell r="G84">
-            <v>5.4860000000000004E-3</v>
-          </cell>
-          <cell r="H84">
-            <v>2.1710000000000002E-3</v>
-          </cell>
-          <cell r="I84">
-            <v>2.637E-3</v>
-          </cell>
-          <cell r="J84">
-            <v>5.9400000000000002E-4</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="F85">
-            <v>0.24438599999999999</v>
-          </cell>
-          <cell r="G85">
-            <v>5.4819999999999999E-3</v>
-          </cell>
-          <cell r="H85">
-            <v>2.2200000000000002E-3</v>
-          </cell>
-          <cell r="I85">
-            <v>2.3240000000000001E-3</v>
-          </cell>
-          <cell r="J85">
-            <v>6.4999999999999997E-4</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="F86">
-            <v>0.24535000000000001</v>
-          </cell>
-          <cell r="G86">
-            <v>5.4450000000000002E-3</v>
-          </cell>
-          <cell r="H86">
-            <v>2.2980000000000001E-3</v>
-          </cell>
-          <cell r="I86">
-            <v>4.1409999999999997E-3</v>
-          </cell>
-          <cell r="J86">
-            <v>1.098E-3</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="F87">
-            <v>0.24174100000000001</v>
-          </cell>
-          <cell r="G87">
-            <v>5.4429999999999999E-3</v>
-          </cell>
-          <cell r="H87">
-            <v>2.1689999999999999E-3</v>
-          </cell>
-          <cell r="I87">
-            <v>2.5300000000000001E-3</v>
-          </cell>
-          <cell r="J87">
-            <v>6.69E-4</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="F88">
-            <v>0.24420700000000001</v>
-          </cell>
-          <cell r="G88">
-            <v>5.4939999999999998E-3</v>
-          </cell>
-          <cell r="H88">
-            <v>2.1840000000000002E-3</v>
-          </cell>
-          <cell r="I88">
-            <v>1.397E-3</v>
-          </cell>
-          <cell r="J88">
-            <v>2.5099999999999998E-4</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="F89">
-            <v>0.245091</v>
-          </cell>
-          <cell r="G89">
-            <v>5.4510000000000001E-3</v>
-          </cell>
-          <cell r="H89">
-            <v>2.2529999999999998E-3</v>
-          </cell>
-          <cell r="I89">
-            <v>6.3420000000000004E-3</v>
-          </cell>
-          <cell r="J89">
-            <v>1.6299999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="F90">
-            <v>0.24380399999999999</v>
-          </cell>
-          <cell r="G90">
-            <v>5.4749999999999998E-3</v>
-          </cell>
-          <cell r="H90">
-            <v>2.1940000000000002E-3</v>
-          </cell>
-          <cell r="I90">
-            <v>3.2569999999999999E-3</v>
-          </cell>
-          <cell r="J90">
-            <v>7.6400000000000003E-4</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="F91">
-            <v>0.242586</v>
-          </cell>
-          <cell r="G91">
-            <v>5.437E-3</v>
-          </cell>
-          <cell r="H91">
-            <v>2.2070000000000002E-3</v>
-          </cell>
-          <cell r="I91">
-            <v>3.49E-3</v>
-          </cell>
-          <cell r="J91">
-            <v>8.5499999999999997E-4</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="F92">
-            <v>0.243149</v>
-          </cell>
-          <cell r="G92">
-            <v>5.4900000000000001E-3</v>
-          </cell>
-          <cell r="H92">
-            <v>2.1749999999999999E-3</v>
-          </cell>
-          <cell r="I92">
-            <v>2.1770000000000001E-3</v>
-          </cell>
-          <cell r="J92">
-            <v>5.0000000000000001E-4</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="F93">
-            <v>0.24335100000000001</v>
-          </cell>
-          <cell r="G93">
-            <v>5.3930000000000002E-3</v>
-          </cell>
-          <cell r="H93">
-            <v>2.2899999999999999E-3</v>
-          </cell>
-          <cell r="I93">
-            <v>4.908E-3</v>
-          </cell>
-          <cell r="J93">
-            <v>1.256E-3</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="F94">
-            <v>0.240839</v>
-          </cell>
-          <cell r="G94">
-            <v>5.4479999999999997E-3</v>
-          </cell>
-          <cell r="H94">
-            <v>2.209E-3</v>
-          </cell>
-          <cell r="I94">
-            <v>3.8210000000000002E-3</v>
-          </cell>
-          <cell r="J94">
-            <v>8.9899999999999995E-4</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="F95">
-            <v>0.24406700000000001</v>
-          </cell>
-          <cell r="G95">
-            <v>5.4219999999999997E-3</v>
-          </cell>
-          <cell r="H95">
-            <v>2.2680000000000001E-3</v>
-          </cell>
-          <cell r="I95">
-            <v>5.555E-3</v>
-          </cell>
-          <cell r="J95">
-            <v>1.446E-3</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="F96">
-            <v>0.244175</v>
-          </cell>
-          <cell r="G96">
-            <v>5.483E-3</v>
-          </cell>
-          <cell r="H96">
-            <v>2.173E-3</v>
-          </cell>
-          <cell r="I96">
-            <v>2.1069999999999999E-3</v>
-          </cell>
-          <cell r="J96">
-            <v>5.5400000000000002E-4</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="F97">
-            <v>0.23965600000000001</v>
-          </cell>
-          <cell r="G97">
-            <v>5.4320000000000002E-3</v>
-          </cell>
-          <cell r="H97">
-            <v>2.1979999999999999E-3</v>
-          </cell>
-          <cell r="I97">
-            <v>3.3430000000000001E-3</v>
-          </cell>
-          <cell r="J97">
-            <v>8.0099999999999995E-4</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="F98">
-            <v>0.240927</v>
-          </cell>
-          <cell r="G98">
-            <v>5.4489999999999999E-3</v>
-          </cell>
-          <cell r="H98">
-            <v>2.2030000000000001E-3</v>
-          </cell>
-          <cell r="I98">
-            <v>2.794E-3</v>
-          </cell>
-          <cell r="J98">
-            <v>7.0100000000000002E-4</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="F99">
-            <v>0.24283299999999999</v>
-          </cell>
-          <cell r="G99">
-            <v>5.4590000000000003E-3</v>
-          </cell>
-          <cell r="H99">
-            <v>2.1970000000000002E-3</v>
-          </cell>
-          <cell r="I99">
-            <v>4.7400000000000003E-3</v>
-          </cell>
-          <cell r="J99">
-            <v>1.1670000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="F100">
-            <v>0.24185699999999999</v>
-          </cell>
-          <cell r="G100">
-            <v>5.4390000000000003E-3</v>
-          </cell>
-          <cell r="H100">
-            <v>2.2550000000000001E-3</v>
-          </cell>
-          <cell r="I100">
-            <v>5.5999999999999999E-3</v>
-          </cell>
-          <cell r="J100">
-            <v>1.462E-3</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="F101">
-            <v>0.243895</v>
-          </cell>
-          <cell r="G101">
-            <v>5.5139999999999998E-3</v>
-          </cell>
-          <cell r="H101">
-            <v>2.2239999999999998E-3</v>
-          </cell>
-          <cell r="I101">
-            <v>4.8469999999999997E-3</v>
-          </cell>
-          <cell r="J101">
-            <v>1.191E-3</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7291,15 +5575,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="11" max="11" width="13.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7330,8 +5617,11 @@
       <c r="J1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>4400</v>
       </c>
@@ -7362,8 +5652,12 @@
       <c r="J2">
         <v>1.4598E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="1" t="str">
+        <f>IF(AND(A2=B2, B2=C2, C2=D2, D2=E2), "O","X")</f>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>4300</v>
       </c>
@@ -7394,8 +5688,12 @@
       <c r="J3">
         <v>1.4423E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="1" t="str">
+        <f t="shared" ref="K3:K66" si="0">IF(AND(A3=B3, B3=C3, C3=D3, D3=E3), "O","X")</f>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>4400</v>
       </c>
@@ -7426,8 +5724,12 @@
       <c r="J4">
         <v>1.8193000000000001E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4440</v>
       </c>
@@ -7458,8 +5760,12 @@
       <c r="J5">
         <v>2.4272999999999999E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>4400</v>
       </c>
@@ -7490,8 +5796,12 @@
       <c r="J6">
         <v>2.181E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>4380</v>
       </c>
@@ -7522,8 +5832,12 @@
       <c r="J7">
         <v>2.1838E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>4380</v>
       </c>
@@ -7554,8 +5868,12 @@
       <c r="J8">
         <v>2.4029999999999999E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>4540</v>
       </c>
@@ -7586,8 +5904,12 @@
       <c r="J9">
         <v>2.4067999999999999E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>4300</v>
       </c>
@@ -7618,8 +5940,12 @@
       <c r="J10">
         <v>1.3701E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>4380</v>
       </c>
@@ -7650,8 +5976,12 @@
       <c r="J11">
         <v>1.6566999999999998E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>4320</v>
       </c>
@@ -7682,8 +6012,12 @@
       <c r="J12">
         <v>1.7513000000000001E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>4300</v>
       </c>
@@ -7714,8 +6048,12 @@
       <c r="J13">
         <v>1.4944000000000001E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>4480</v>
       </c>
@@ -7746,8 +6084,12 @@
       <c r="J14">
         <v>2.477E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>4340</v>
       </c>
@@ -7778,8 +6120,12 @@
       <c r="J15">
         <v>1.8606999999999999E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>4420</v>
       </c>
@@ -7810,8 +6156,12 @@
       <c r="J16">
         <v>1.8744E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>4460</v>
       </c>
@@ -7842,8 +6192,12 @@
       <c r="J17">
         <v>2.6124000000000001E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>4460</v>
       </c>
@@ -7874,8 +6228,12 @@
       <c r="J18">
         <v>2.4041E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>4340</v>
       </c>
@@ -7906,8 +6264,12 @@
       <c r="J19">
         <v>2.1866E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>4400</v>
       </c>
@@ -7938,8 +6300,12 @@
       <c r="J20">
         <v>2.1545000000000002E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>4560</v>
       </c>
@@ -7970,8 +6336,12 @@
       <c r="J21">
         <v>2.6664E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>4440</v>
       </c>
@@ -8002,8 +6372,12 @@
       <c r="J22">
         <v>2.1364999999999999E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>4140</v>
       </c>
@@ -8034,8 +6408,12 @@
       <c r="J23">
         <v>1.0359999999999999E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>4460</v>
       </c>
@@ -8066,8 +6444,12 @@
       <c r="J24">
         <v>1.7784000000000001E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>4460</v>
       </c>
@@ -8098,8 +6480,12 @@
       <c r="J25">
         <v>2.3782000000000001E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>4240</v>
       </c>
@@ -8130,8 +6516,12 @@
       <c r="J26">
         <v>1.0433E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>4220</v>
       </c>
@@ -8162,8 +6552,12 @@
       <c r="J27">
         <v>1.4182999999999999E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>4440</v>
       </c>
@@ -8194,8 +6588,12 @@
       <c r="J28">
         <v>2.4806000000000002E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>4560</v>
       </c>
@@ -8226,8 +6624,12 @@
       <c r="J29">
         <v>2.5173000000000001E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>4360</v>
       </c>
@@ -8258,8 +6660,12 @@
       <c r="J30">
         <v>1.8023999999999998E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>4400</v>
       </c>
@@ -8290,8 +6696,12 @@
       <c r="J31">
         <v>1.3096E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>4420</v>
       </c>
@@ -8322,8 +6732,12 @@
       <c r="J32">
         <v>2.3616000000000002E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>4340</v>
       </c>
@@ -8354,8 +6768,12 @@
       <c r="J33">
         <v>1.4829E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>4360</v>
       </c>
@@ -8386,8 +6804,12 @@
       <c r="J34">
         <v>1.9108E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>4340</v>
       </c>
@@ -8418,8 +6840,12 @@
       <c r="J35">
         <v>1.8200999999999998E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>4440</v>
       </c>
@@ -8450,8 +6876,12 @@
       <c r="J36">
         <v>1.8074E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>4440</v>
       </c>
@@ -8482,8 +6912,12 @@
       <c r="J37">
         <v>2.0521999999999999E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>4440</v>
       </c>
@@ -8514,8 +6948,12 @@
       <c r="J38">
         <v>1.9959000000000001E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>4440</v>
       </c>
@@ -8546,8 +6984,12 @@
       <c r="J39">
         <v>2.3599999999999999E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>4220</v>
       </c>
@@ -8578,8 +7020,12 @@
       <c r="J40">
         <v>1.9640000000000001E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>4380</v>
       </c>
@@ -8610,8 +7056,12 @@
       <c r="J41">
         <v>2.0506E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>4380</v>
       </c>
@@ -8642,8 +7092,12 @@
       <c r="J42">
         <v>1.992E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>4400</v>
       </c>
@@ -8674,8 +7128,12 @@
       <c r="J43">
         <v>2.1467E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>4460</v>
       </c>
@@ -8706,8 +7164,12 @@
       <c r="J44">
         <v>2.4513E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>4560</v>
       </c>
@@ -8738,8 +7200,12 @@
       <c r="J45">
         <v>2.6283999999999998E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>4400</v>
       </c>
@@ -8770,8 +7236,12 @@
       <c r="J46">
         <v>2.1113E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>4380</v>
       </c>
@@ -8802,8 +7272,12 @@
       <c r="J47">
         <v>2.1152000000000001E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>4380</v>
       </c>
@@ -8834,8 +7308,12 @@
       <c r="J48">
         <v>1.7652999999999999E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>4340</v>
       </c>
@@ -8866,8 +7344,12 @@
       <c r="J49">
         <v>1.6378E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>4340</v>
       </c>
@@ -8898,8 +7380,12 @@
       <c r="J50">
         <v>1.5334E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>4340</v>
       </c>
@@ -8930,8 +7416,12 @@
       <c r="J51">
         <v>1.8645999999999999E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>4520</v>
       </c>
@@ -8962,8 +7452,12 @@
       <c r="J52">
         <v>2.3251999999999998E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>4180</v>
       </c>
@@ -8994,8 +7488,12 @@
       <c r="J53">
         <v>8.1550000000000008E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>4440</v>
       </c>
@@ -9026,8 +7524,12 @@
       <c r="J54">
         <v>2.1758E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>4300</v>
       </c>
@@ -9058,8 +7560,12 @@
       <c r="J55">
         <v>1.6402E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>4420</v>
       </c>
@@ -9090,8 +7596,12 @@
       <c r="J56">
         <v>1.7502E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>4560</v>
       </c>
@@ -9122,8 +7632,12 @@
       <c r="J57">
         <v>2.4351000000000001E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>4360</v>
       </c>
@@ -9154,8 +7668,12 @@
       <c r="J58">
         <v>1.6087000000000001E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>4480</v>
       </c>
@@ -9186,8 +7704,12 @@
       <c r="J59">
         <v>1.8844E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>4280</v>
       </c>
@@ -9218,8 +7740,12 @@
       <c r="J60">
         <v>1.4279E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>4480</v>
       </c>
@@ -9250,8 +7776,12 @@
       <c r="J61">
         <v>2.1807E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>4380</v>
       </c>
@@ -9282,8 +7812,12 @@
       <c r="J62">
         <v>1.5596E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>4440</v>
       </c>
@@ -9314,8 +7848,12 @@
       <c r="J63">
         <v>2.3046000000000001E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>4540</v>
       </c>
@@ -9346,8 +7884,12 @@
       <c r="J64">
         <v>2.46E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>4300</v>
       </c>
@@ -9378,8 +7920,12 @@
       <c r="J65">
         <v>1.8319999999999999E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>4380</v>
       </c>
@@ -9410,8 +7956,12 @@
       <c r="J66">
         <v>2.0525000000000002E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>4380</v>
       </c>
@@ -9442,8 +7992,12 @@
       <c r="J67">
         <v>2.2089000000000001E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K67" s="1" t="str">
+        <f t="shared" ref="K67:K101" si="1">IF(AND(A67=B67, B67=C67, C67=D67, D67=E67), "O","X")</f>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>4300</v>
       </c>
@@ -9474,8 +8028,12 @@
       <c r="J68">
         <v>1.908E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K68" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>4720</v>
       </c>
@@ -9506,8 +8064,12 @@
       <c r="J69">
         <v>2.7422999999999999E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K69" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>4500</v>
       </c>
@@ -9538,8 +8100,12 @@
       <c r="J70">
         <v>2.1815000000000001E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K70" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>4380</v>
       </c>
@@ -9570,8 +8136,12 @@
       <c r="J71">
         <v>1.8204999999999999E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K71" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>4380</v>
       </c>
@@ -9602,8 +8172,12 @@
       <c r="J72">
         <v>2.2977000000000001E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K72" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>4560</v>
       </c>
@@ -9634,8 +8208,12 @@
       <c r="J73">
         <v>2.3702999999999998E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K73" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>4640</v>
       </c>
@@ -9666,8 +8244,12 @@
       <c r="J74">
         <v>2.6773999999999999E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K74" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>4420</v>
       </c>
@@ -9698,8 +8280,12 @@
       <c r="J75">
         <v>2.282E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K75" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>4440</v>
       </c>
@@ -9730,8 +8316,12 @@
       <c r="J76">
         <v>2.3552E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K76" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>4460</v>
       </c>
@@ -9762,8 +8352,12 @@
       <c r="J77">
         <v>1.8957000000000002E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K77" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>4460</v>
       </c>
@@ -9794,8 +8388,12 @@
       <c r="J78">
         <v>2.4656999999999998E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K78" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>4320</v>
       </c>
@@ -9826,8 +8424,12 @@
       <c r="J79">
         <v>2.1086000000000001E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K79" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>4460</v>
       </c>
@@ -9858,8 +8460,12 @@
       <c r="J80">
         <v>1.9925999999999999E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K80" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>4400</v>
       </c>
@@ -9890,8 +8496,12 @@
       <c r="J81">
         <v>2.0992E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K81" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>4280</v>
       </c>
@@ -9922,8 +8532,12 @@
       <c r="J82">
         <v>1.5914000000000001E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K82" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>4420</v>
       </c>
@@ -9954,8 +8568,12 @@
       <c r="J83">
         <v>2.1713E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K83" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>4460</v>
       </c>
@@ -9986,8 +8604,12 @@
       <c r="J84">
         <v>2.1285999999999999E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K84" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>4540</v>
       </c>
@@ -10018,8 +8640,12 @@
       <c r="J85">
         <v>2.5582000000000001E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K85" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>4280</v>
       </c>
@@ -10050,8 +8676,12 @@
       <c r="J86">
         <v>1.6889000000000001E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K86" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>4380</v>
       </c>
@@ -10082,8 +8712,12 @@
       <c r="J87">
         <v>2.1706E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K87" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>4200</v>
       </c>
@@ -10114,8 +8748,12 @@
       <c r="J88">
         <v>1.0796999999999999E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K88" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>4380</v>
       </c>
@@ -10146,8 +8784,12 @@
       <c r="J89">
         <v>1.6990999999999999E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K89" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90">
         <v>4280</v>
       </c>
@@ -10178,8 +8820,12 @@
       <c r="J90">
         <v>1.3638000000000001E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K90" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>4520</v>
       </c>
@@ -10210,8 +8856,12 @@
       <c r="J91">
         <v>2.5937999999999999E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K91" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92">
         <v>4400</v>
       </c>
@@ -10242,8 +8892,12 @@
       <c r="J92">
         <v>1.9715E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K92" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93">
         <v>4420</v>
       </c>
@@ -10274,8 +8928,12 @@
       <c r="J93">
         <v>2.1092E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K93" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94">
         <v>4460</v>
       </c>
@@ -10306,8 +8964,12 @@
       <c r="J94">
         <v>2.2315999999999999E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K94" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95">
         <v>4320</v>
       </c>
@@ -10338,8 +9000,12 @@
       <c r="J95">
         <v>2.0947E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K95" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96">
         <v>4380</v>
       </c>
@@ -10370,8 +9036,12 @@
       <c r="J96">
         <v>1.7977E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K96" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97">
         <v>4320</v>
       </c>
@@ -10402,8 +9072,12 @@
       <c r="J97">
         <v>1.4670000000000001E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K97" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98">
         <v>4400</v>
       </c>
@@ -10434,8 +9108,12 @@
       <c r="J98">
         <v>2.1163999999999999E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K98" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99">
         <v>4320</v>
       </c>
@@ -10466,8 +9144,12 @@
       <c r="J99">
         <v>2.0728E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K99" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100">
         <v>4440</v>
       </c>
@@ -10498,8 +9180,12 @@
       <c r="J100">
         <v>2.2752000000000001E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K100" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>4560</v>
       </c>
@@ -10529,6 +9215,10 @@
       </c>
       <c r="J101">
         <v>2.6126E-2</v>
+      </c>
+      <c r="K101" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
       </c>
     </row>
   </sheetData>
